--- a/data/spring-boot-microservices/best-hotels-service_structure.xlsx
+++ b/data/spring-boot-microservices/best-hotels-service_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2263" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2254" uniqueCount="289">
   <si>
     <t>Class Name</t>
   </si>
@@ -669,18 +669,18 @@
     <t>hotelName</t>
   </si>
   <si>
+    <t>hotelFare</t>
+  </si>
+  <si>
+    <t>hotelId</t>
+  </si>
+  <si>
+    <t>roomAmenitites</t>
+  </si>
+  <si>
     <t>hotelRate</t>
   </si>
   <si>
-    <t>hotelFare</t>
-  </si>
-  <si>
-    <t>roomAmenitites</t>
-  </si>
-  <si>
-    <t>hotelId</t>
-  </si>
-  <si>
     <t>serialVersionUID</t>
   </si>
   <si>
@@ -690,18 +690,18 @@
     <t>$assertionsDisabled</t>
   </si>
   <si>
+    <t>success</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
     <t>data</t>
   </si>
   <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>success</t>
-  </si>
-  <si>
-    <t>message</t>
-  </si>
-  <si>
     <t>HotelRepsitory</t>
   </si>
   <si>
@@ -717,6 +717,21 @@
     <t>org.springframework.test.web.servlet.MockMvc</t>
   </si>
   <si>
+    <t>UNTREEIFY_THRESHOLD</t>
+  </si>
+  <si>
+    <t>DEFAULT_LOAD_FACTOR</t>
+  </si>
+  <si>
+    <t>this$0</t>
+  </si>
+  <si>
+    <t>threshold</t>
+  </si>
+  <si>
+    <t>TREEIFY_THRESHOLD</t>
+  </si>
+  <si>
     <t>DEFAULT_INITIAL_CAPACITY</t>
   </si>
   <si>
@@ -726,13 +741,19 @@
     <t>keySet</t>
   </si>
   <si>
-    <t>threshold</t>
+    <t>values</t>
+  </si>
+  <si>
+    <t>entrySet</t>
+  </si>
+  <si>
+    <t>MAXIMUM_CAPACITY</t>
   </si>
   <si>
     <t>size</t>
   </si>
   <si>
-    <t>values</t>
+    <t>modCount</t>
   </si>
   <si>
     <t>table</t>
@@ -741,40 +762,22 @@
     <t>MIN_TREEIFY_CAPACITY</t>
   </si>
   <si>
-    <t>modCount</t>
-  </si>
-  <si>
-    <t>DEFAULT_LOAD_FACTOR</t>
-  </si>
-  <si>
-    <t>MAXIMUM_CAPACITY</t>
-  </si>
-  <si>
-    <t>UNTREEIFY_THRESHOLD</t>
-  </si>
-  <si>
-    <t>this$0</t>
-  </si>
-  <si>
-    <t>TREEIFY_THRESHOLD</t>
-  </si>
-  <si>
-    <t>entrySet</t>
-  </si>
-  <si>
     <t>bestHotelService</t>
   </si>
   <si>
     <t>AUJ</t>
   </si>
   <si>
+    <t>$VALUES</t>
+  </si>
+  <si>
+    <t>AUE</t>
+  </si>
+  <si>
     <t>AUH</t>
   </si>
   <si>
-    <t>AUE</t>
-  </si>
-  <si>
-    <t>$VALUES</t>
+    <t>city</t>
   </si>
   <si>
     <t>to</t>
@@ -784,9 +787,6 @@
   </si>
   <si>
     <t>fromDate</t>
-  </si>
-  <si>
-    <t>city</t>
   </si>
   <si>
     <t>bestHotelServiceImpl</t>
@@ -6373,7 +6373,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C71"/>
+  <dimension ref="A1:C68"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6502,24 +6502,24 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>280</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>262</v>
+        <v>272</v>
       </c>
     </row>
     <row r="14">
@@ -6527,29 +6527,29 @@
         <v>38</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>262</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>272</v>
+        <v>284</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>272</v>
@@ -6557,24 +6557,24 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>272</v>
+        <v>279</v>
       </c>
     </row>
     <row r="19">
@@ -6582,10 +6582,10 @@
         <v>62</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="20">
@@ -6593,10 +6593,10 @@
         <v>62</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
     <row r="21">
@@ -6604,10 +6604,10 @@
         <v>62</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
     <row r="22">
@@ -6615,7 +6615,7 @@
         <v>62</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>272</v>
@@ -6626,7 +6626,7 @@
         <v>62</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>272</v>
@@ -6637,7 +6637,7 @@
         <v>62</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>272</v>
@@ -6648,10 +6648,10 @@
         <v>62</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>272</v>
+        <v>285</v>
       </c>
     </row>
     <row r="26">
@@ -6659,7 +6659,7 @@
         <v>62</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>272</v>
@@ -6670,10 +6670,10 @@
         <v>62</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="28">
@@ -6681,7 +6681,7 @@
         <v>62</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>272</v>
@@ -6689,24 +6689,24 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>286</v>
+        <v>278</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>272</v>
+        <v>287</v>
       </c>
     </row>
     <row r="31">
@@ -6714,10 +6714,10 @@
         <v>71</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>284</v>
+        <v>272</v>
       </c>
     </row>
     <row r="32">
@@ -6725,10 +6725,10 @@
         <v>71</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="33">
@@ -6736,10 +6736,10 @@
         <v>71</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="34">
@@ -6747,43 +6747,43 @@
         <v>71</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>272</v>
+        <v>284</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>272</v>
+        <v>284</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="38">
@@ -6791,10 +6791,10 @@
         <v>82</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="39">
@@ -6802,43 +6802,43 @@
         <v>82</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>277</v>
+        <v>288</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>277</v>
+        <v>284</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>288</v>
+        <v>272</v>
       </c>
     </row>
     <row r="43">
@@ -6846,73 +6846,73 @@
         <v>88</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>272</v>
+        <v>284</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>88</v>
+        <v>166</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>91</v>
+        <v>167</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>272</v>
+        <v>261</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>92</v>
+        <v>210</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>93</v>
+        <v>208</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>106</v>
+        <v>209</v>
       </c>
       <c r="C47" t="s" s="0">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>261</v>
+        <v>284</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>208</v>
+        <v>168</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>210</v>
+        <v>169</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>284</v>
@@ -6920,21 +6920,21 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>208</v>
+        <v>168</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>209</v>
+        <v>172</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>277</v>
+        <v>284</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>143</v>
+        <v>182</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>284</v>
@@ -6942,21 +6942,21 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="C53" t="s" s="0">
         <v>284</v>
@@ -6964,35 +6964,35 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>284</v>
+        <v>272</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>167</v>
+        <v>195</v>
       </c>
       <c r="C55" t="s" s="0">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>284</v>
+        <v>272</v>
       </c>
     </row>
     <row r="57">
@@ -7000,7 +7000,7 @@
         <v>185</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C57" t="s" s="0">
         <v>272</v>
@@ -7011,7 +7011,7 @@
         <v>185</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C58" t="s" s="0">
         <v>272</v>
@@ -7022,7 +7022,7 @@
         <v>185</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C59" t="s" s="0">
         <v>272</v>
@@ -7033,7 +7033,7 @@
         <v>185</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C60" t="s" s="0">
         <v>272</v>
@@ -7044,7 +7044,7 @@
         <v>185</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C61" t="s" s="0">
         <v>272</v>
@@ -7055,65 +7055,65 @@
         <v>185</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C62" t="s" s="0">
-        <v>272</v>
+        <v>278</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="C63" t="s" s="0">
-        <v>272</v>
+        <v>284</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C64" t="s" s="0">
-        <v>272</v>
+        <v>282</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="C65" t="s" s="0">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C66" t="s" s="0">
-        <v>284</v>
+        <v>272</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C67" t="s" s="0">
-        <v>282</v>
+        <v>271</v>
       </c>
     </row>
     <row r="68">
@@ -7121,42 +7121,9 @@
         <v>200</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C68" t="s" s="0">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s" s="0">
-        <v>200</v>
-      </c>
-      <c r="B69" t="s" s="0">
-        <v>201</v>
-      </c>
-      <c r="C69" t="s" s="0">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s" s="0">
-        <v>200</v>
-      </c>
-      <c r="B70" t="s" s="0">
-        <v>203</v>
-      </c>
-      <c r="C70" t="s" s="0">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s" s="0">
-        <v>200</v>
-      </c>
-      <c r="B71" t="s" s="0">
-        <v>204</v>
-      </c>
-      <c r="C71" t="s" s="0">
         <v>279</v>
       </c>
     </row>
@@ -7407,7 +7374,7 @@
         <v>77</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
@@ -7435,7 +7402,7 @@
         <v>77</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7">
@@ -7505,7 +7472,7 @@
         <v>77</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>35</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -7533,7 +7500,7 @@
         <v>77</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
@@ -7547,7 +7514,7 @@
         <v>77</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15">
@@ -7645,7 +7612,7 @@
         <v>43</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>134</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22">
@@ -7687,7 +7654,7 @@
         <v>43</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>75</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25">
@@ -7701,7 +7668,7 @@
         <v>43</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26">
@@ -7715,7 +7682,7 @@
         <v>43</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>22</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27">
@@ -7729,7 +7696,7 @@
         <v>43</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>22</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28">
@@ -7743,7 +7710,7 @@
         <v>43</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>153</v>
+        <v>134</v>
       </c>
     </row>
     <row r="29">
@@ -7785,7 +7752,7 @@
         <v>43</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>82</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32">
@@ -7799,7 +7766,7 @@
         <v>43</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>22</v>
+        <v>156</v>
       </c>
     </row>
     <row r="33">
@@ -7813,7 +7780,7 @@
         <v>43</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>134</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34">
@@ -7852,10 +7819,10 @@
         <v>248</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="37">
@@ -7880,10 +7847,10 @@
         <v>250</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="39">
@@ -7933,13 +7900,13 @@
         <v>183</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>43</v>
       </c>
       <c r="D42" t="s" s="0">
-        <v>134</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43">
@@ -7947,7 +7914,7 @@
         <v>183</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C43" t="s" s="0">
         <v>43</v>
@@ -7961,7 +7928,7 @@
         <v>183</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>43</v>
@@ -7975,13 +7942,13 @@
         <v>183</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>43</v>
       </c>
       <c r="D45" t="s" s="0">
-        <v>200</v>
+        <v>153</v>
       </c>
     </row>
     <row r="46">
@@ -7989,13 +7956,13 @@
         <v>183</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>43</v>
       </c>
       <c r="D46" t="s" s="0">
-        <v>75</v>
+        <v>134</v>
       </c>
     </row>
     <row r="47">
@@ -8003,13 +7970,13 @@
         <v>183</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>43</v>
       </c>
       <c r="D47" t="s" s="0">
-        <v>156</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48">
@@ -8017,13 +7984,13 @@
         <v>183</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C48" t="s" s="0">
         <v>43</v>
       </c>
       <c r="D48" t="s" s="0">
-        <v>22</v>
+        <v>134</v>
       </c>
     </row>
     <row r="49">
@@ -8031,7 +7998,7 @@
         <v>183</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>43</v>
@@ -8045,13 +8012,13 @@
         <v>183</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C50" t="s" s="0">
         <v>43</v>
       </c>
       <c r="D50" t="s" s="0">
-        <v>153</v>
+        <v>200</v>
       </c>
     </row>
     <row r="51">
@@ -8059,7 +8026,7 @@
         <v>183</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>43</v>
@@ -8073,7 +8040,7 @@
         <v>183</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C52" t="s" s="0">
         <v>43</v>
@@ -8093,7 +8060,7 @@
         <v>43</v>
       </c>
       <c r="D53" t="s" s="0">
-        <v>22</v>
+        <v>156</v>
       </c>
     </row>
     <row r="54">
@@ -8107,7 +8074,7 @@
         <v>43</v>
       </c>
       <c r="D54" t="s" s="0">
-        <v>134</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55">
@@ -8121,7 +8088,7 @@
         <v>77</v>
       </c>
       <c r="D55" t="s" s="0">
-        <v>192</v>
+        <v>168</v>
       </c>
     </row>
     <row r="56">
@@ -8135,7 +8102,7 @@
         <v>77</v>
       </c>
       <c r="D56" t="s" s="0">
-        <v>16</v>
+        <v>192</v>
       </c>
     </row>
     <row r="57">
@@ -8149,7 +8116,7 @@
         <v>77</v>
       </c>
       <c r="D57" t="s" s="0">
-        <v>192</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58">
@@ -8163,7 +8130,7 @@
         <v>77</v>
       </c>
       <c r="D58" t="s" s="0">
-        <v>168</v>
+        <v>192</v>
       </c>
     </row>
     <row r="59">
@@ -8171,13 +8138,13 @@
         <v>200</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>255</v>
+        <v>228</v>
       </c>
       <c r="C59" t="s" s="0">
         <v>43</v>
       </c>
       <c r="D59" t="s" s="0">
-        <v>166</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60">
@@ -8185,13 +8152,13 @@
         <v>200</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="C60" t="s" s="0">
         <v>43</v>
       </c>
       <c r="D60" t="s" s="0">
-        <v>71</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
